--- a/Code/Results/Cases/Case_8_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024716759124622</v>
+        <v>1.018579612012813</v>
       </c>
       <c r="D2">
-        <v>1.038700444152555</v>
+        <v>1.033263607183386</v>
       </c>
       <c r="E2">
-        <v>1.027054424780541</v>
+        <v>1.022059653415945</v>
       </c>
       <c r="F2">
-        <v>1.036601775295444</v>
+        <v>1.033765589042573</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058140469240829</v>
+        <v>1.054569799734323</v>
       </c>
       <c r="J2">
-        <v>1.046182517339808</v>
+        <v>1.040218463990136</v>
       </c>
       <c r="K2">
-        <v>1.049645716834628</v>
+        <v>1.044278190576539</v>
       </c>
       <c r="L2">
-        <v>1.038149288846588</v>
+        <v>1.033219984239852</v>
       </c>
       <c r="M2">
-        <v>1.047573694932554</v>
+        <v>1.044773734810431</v>
       </c>
       <c r="N2">
-        <v>1.047668216513243</v>
+        <v>1.032147116600711</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046223756568719</v>
+        <v>1.0440077899336</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046174070077178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042387523741591</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023367599171933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029445430261954</v>
+        <v>1.022599574194496</v>
       </c>
       <c r="D3">
-        <v>1.041976984326394</v>
+        <v>1.035903408796116</v>
       </c>
       <c r="E3">
-        <v>1.03095606498895</v>
+        <v>1.025298956772699</v>
       </c>
       <c r="F3">
-        <v>1.039806381421607</v>
+        <v>1.03664544505205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05978290710305</v>
+        <v>1.055790924342679</v>
       </c>
       <c r="J3">
-        <v>1.049164346127117</v>
+        <v>1.042492554020906</v>
       </c>
       <c r="K3">
-        <v>1.052099521501725</v>
+        <v>1.046096618630032</v>
       </c>
       <c r="L3">
-        <v>1.041207604903045</v>
+        <v>1.035618050914537</v>
       </c>
       <c r="M3">
-        <v>1.049954058731503</v>
+        <v>1.046829965551545</v>
       </c>
       <c r="N3">
-        <v>1.05065427983945</v>
+        <v>1.033422088809863</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048107637706038</v>
+        <v>1.045635149019452</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047906453837842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043670370321724</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023796807367858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032440791939244</v>
+        <v>1.025151682982921</v>
       </c>
       <c r="D4">
-        <v>1.044055844618724</v>
+        <v>1.037582659183728</v>
       </c>
       <c r="E4">
-        <v>1.033431818855995</v>
+        <v>1.027360497098799</v>
       </c>
       <c r="F4">
-        <v>1.041845289532257</v>
+        <v>1.038481367380265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060813391571007</v>
+        <v>1.056556575610961</v>
       </c>
       <c r="J4">
-        <v>1.051049550474589</v>
+        <v>1.043933177410177</v>
       </c>
       <c r="K4">
-        <v>1.053650113187774</v>
+        <v>1.047247705471149</v>
       </c>
       <c r="L4">
-        <v>1.043142824230755</v>
+        <v>1.0371395495696</v>
       </c>
       <c r="M4">
-        <v>1.051463606891131</v>
+        <v>1.048136522406081</v>
       </c>
       <c r="N4">
-        <v>1.052542161393331</v>
+        <v>1.034229770164729</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049302330463694</v>
+        <v>1.046669193142203</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049003718119762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044485247371627</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024065967594251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033692533917257</v>
+        <v>1.026218347136389</v>
       </c>
       <c r="D5">
-        <v>1.044928132528378</v>
+        <v>1.038287979409329</v>
       </c>
       <c r="E5">
-        <v>1.034469370049293</v>
+        <v>1.028224694504426</v>
       </c>
       <c r="F5">
-        <v>1.04269786670264</v>
+        <v>1.039249227493605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061243848887807</v>
+        <v>1.056876244224102</v>
       </c>
       <c r="J5">
-        <v>1.051839018733816</v>
+        <v>1.0445366389977</v>
       </c>
       <c r="K5">
-        <v>1.054301163249332</v>
+        <v>1.047731679415124</v>
       </c>
       <c r="L5">
-        <v>1.043954214245841</v>
+        <v>1.037777631662218</v>
       </c>
       <c r="M5">
-        <v>1.052094510662222</v>
+        <v>1.048682628737542</v>
       </c>
       <c r="N5">
-        <v>1.05333275078804</v>
+        <v>1.03456809768551</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049801642329096</v>
+        <v>1.047101395903565</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049471135765416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044835275386991</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024179985540122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033910812407172</v>
+        <v>1.02640304958387</v>
       </c>
       <c r="D6">
-        <v>1.045083663190783</v>
+        <v>1.038413435252875</v>
       </c>
       <c r="E6">
-        <v>1.034652740869224</v>
+        <v>1.028376094727419</v>
       </c>
       <c r="F6">
-        <v>1.042844760100636</v>
+        <v>1.039380763735982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061321502724675</v>
+        <v>1.056933895750303</v>
       </c>
       <c r="J6">
-        <v>1.051979741176165</v>
+        <v>1.044643664304044</v>
       </c>
       <c r="K6">
-        <v>1.054419499492012</v>
+        <v>1.047819934868702</v>
       </c>
       <c r="L6">
-        <v>1.044099572895688</v>
+        <v>1.03789104855154</v>
       </c>
       <c r="M6">
-        <v>1.052204191698849</v>
+        <v>1.048776946799505</v>
       </c>
       <c r="N6">
-        <v>1.053473673072398</v>
+        <v>1.034628100761664</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04988844640916</v>
+        <v>1.047176041646489</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049563441215408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044907219461192</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024202517619656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032481898195891</v>
+        <v>1.02521795532421</v>
       </c>
       <c r="D7">
-        <v>1.04409357886153</v>
+        <v>1.037640352252287</v>
       </c>
       <c r="E7">
-        <v>1.033472425561072</v>
+        <v>1.027427320604685</v>
       </c>
       <c r="F7">
-        <v>1.041868123033499</v>
+        <v>1.038515860961797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060834916239121</v>
+        <v>1.056592064405967</v>
       </c>
       <c r="J7">
-        <v>1.051083891240888</v>
+        <v>1.043992001275204</v>
       </c>
       <c r="K7">
-        <v>1.053684605160883</v>
+        <v>1.047301906635208</v>
       </c>
       <c r="L7">
-        <v>1.043180107469253</v>
+        <v>1.037202724482309</v>
       </c>
       <c r="M7">
-        <v>1.051483350459832</v>
+        <v>1.048167783675926</v>
       </c>
       <c r="N7">
-        <v>1.052576550927458</v>
+        <v>1.034314357336236</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049317955986589</v>
+        <v>1.046693934131465</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04904797037292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044545520116905</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024090894305628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026359870009602</v>
+        <v>1.020081439868345</v>
       </c>
       <c r="D8">
-        <v>1.039849762954297</v>
+        <v>1.034277209708836</v>
       </c>
       <c r="E8">
-        <v>1.028418043819036</v>
+        <v>1.023303227003807</v>
       </c>
       <c r="F8">
-        <v>1.037706831331895</v>
+        <v>1.034806329460518</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.058722475058391</v>
+        <v>1.055064510219548</v>
       </c>
       <c r="J8">
-        <v>1.047230113196314</v>
+        <v>1.04112273683189</v>
       </c>
       <c r="K8">
-        <v>1.050515700278417</v>
+        <v>1.045012060080609</v>
       </c>
       <c r="L8">
-        <v>1.039226356504675</v>
+        <v>1.034176528604654</v>
       </c>
       <c r="M8">
-        <v>1.048399160227257</v>
+        <v>1.045534596742168</v>
       </c>
       <c r="N8">
-        <v>1.048717300076025</v>
+        <v>1.032810678112483</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046877051579784</v>
+        <v>1.044609957978251</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046811871869896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042931437543872</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023571478319308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015011812235297</v>
+        <v>1.010499901765449</v>
       </c>
       <c r="D9">
-        <v>1.031997400170236</v>
+        <v>1.028000411744363</v>
       </c>
       <c r="E9">
-        <v>1.019073772764759</v>
+        <v>1.015614946159602</v>
       </c>
       <c r="F9">
-        <v>1.030076554050564</v>
+        <v>1.027986485372567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054717464945062</v>
+        <v>1.052099694873382</v>
       </c>
       <c r="J9">
-        <v>1.040045378413633</v>
+        <v>1.035687253010833</v>
       </c>
       <c r="K9">
-        <v>1.044591829135824</v>
+        <v>1.04065496838946</v>
       </c>
       <c r="L9">
-        <v>1.031864789608042</v>
+        <v>1.028459661795974</v>
       </c>
       <c r="M9">
-        <v>1.042699804632563</v>
+        <v>1.040641252556704</v>
       </c>
       <c r="N9">
-        <v>1.041522362145852</v>
+        <v>1.029782455183659</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042366419339003</v>
+        <v>1.040737215764814</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042620218858368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039847287884498</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022529651807018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007215306314612</v>
+        <v>1.004104113580203</v>
       </c>
       <c r="D10">
-        <v>1.026650468212621</v>
+        <v>1.023881434831327</v>
       </c>
       <c r="E10">
-        <v>1.01272114789438</v>
+        <v>1.010587230137461</v>
       </c>
       <c r="F10">
-        <v>1.025042428690224</v>
+        <v>1.023597516096364</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051961633870325</v>
+        <v>1.050155317070686</v>
       </c>
       <c r="J10">
-        <v>1.035145549057876</v>
+        <v>1.032155839550198</v>
       </c>
       <c r="K10">
-        <v>1.040554653722336</v>
+        <v>1.037832486805225</v>
       </c>
       <c r="L10">
-        <v>1.026864454921486</v>
+        <v>1.024767924265562</v>
       </c>
       <c r="M10">
-        <v>1.038973790819788</v>
+        <v>1.037553391957985</v>
       </c>
       <c r="N10">
-        <v>1.036615574470392</v>
+        <v>1.028033906118279</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039468907453731</v>
+        <v>1.038344824504302</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039782407901195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037870050972918</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021902515837571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004959058543124</v>
+        <v>1.002302870582066</v>
       </c>
       <c r="D11">
-        <v>1.025295740295778</v>
+        <v>1.022917955443807</v>
       </c>
       <c r="E11">
-        <v>1.011206017195219</v>
+        <v>1.009453456138784</v>
       </c>
       <c r="F11">
-        <v>1.024832885342878</v>
+        <v>1.023605694310468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051497310805227</v>
+        <v>1.049954916690893</v>
       </c>
       <c r="J11">
-        <v>1.034126980243169</v>
+        <v>1.031580160264497</v>
       </c>
       <c r="K11">
-        <v>1.0397558788058</v>
+        <v>1.037420238724852</v>
       </c>
       <c r="L11">
-        <v>1.025919654044588</v>
+        <v>1.024199269334056</v>
       </c>
       <c r="M11">
-        <v>1.039301207789166</v>
+        <v>1.03809576173014</v>
       </c>
       <c r="N11">
-        <v>1.035595559171137</v>
+        <v>1.028152503764292</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040163381137889</v>
+        <v>1.039209887859163</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039250299425469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03761450186739</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022033806232037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004505442184831</v>
+        <v>1.001864862058687</v>
       </c>
       <c r="D12">
-        <v>1.025113317763828</v>
+        <v>1.022747362661671</v>
       </c>
       <c r="E12">
-        <v>1.011072960399518</v>
+        <v>1.009280184571274</v>
       </c>
       <c r="F12">
-        <v>1.02543109857879</v>
+        <v>1.024216682581815</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051569433073711</v>
+        <v>1.050038114238206</v>
       </c>
       <c r="J12">
-        <v>1.034120340052419</v>
+        <v>1.03159050673459</v>
       </c>
       <c r="K12">
-        <v>1.039774699423675</v>
+        <v>1.037451360591042</v>
       </c>
       <c r="L12">
-        <v>1.025991050849944</v>
+        <v>1.024231724717984</v>
       </c>
       <c r="M12">
-        <v>1.040086775740513</v>
+        <v>1.038894184583808</v>
       </c>
       <c r="N12">
-        <v>1.035588909550554</v>
+        <v>1.028350003135356</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041110357539635</v>
+        <v>1.040167350449492</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03926360606713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037636505427831</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022175212528234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005439621317295</v>
+        <v>1.002453214298139</v>
       </c>
       <c r="D13">
-        <v>1.025851988454545</v>
+        <v>1.023189308626313</v>
       </c>
       <c r="E13">
-        <v>1.01202511414933</v>
+        <v>1.009842077234627</v>
       </c>
       <c r="F13">
-        <v>1.026723637930502</v>
+        <v>1.025355248458575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052083309069488</v>
+        <v>1.050357049068725</v>
       </c>
       <c r="J13">
-        <v>1.034923751546585</v>
+        <v>1.032061868669485</v>
       </c>
       <c r="K13">
-        <v>1.040457687544518</v>
+        <v>1.037842737104827</v>
       </c>
       <c r="L13">
-        <v>1.026882229213266</v>
+        <v>1.024739707785323</v>
       </c>
       <c r="M13">
-        <v>1.041313782246529</v>
+        <v>1.03996982734499</v>
       </c>
       <c r="N13">
-        <v>1.036393461981194</v>
+        <v>1.028571745333936</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042356475587598</v>
+        <v>1.041294047619504</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03974401828722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037910489538001</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02234541267577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006709595327019</v>
+        <v>1.003336361560936</v>
       </c>
       <c r="D14">
-        <v>1.026777275532493</v>
+        <v>1.023784216100191</v>
       </c>
       <c r="E14">
-        <v>1.013170536999715</v>
+        <v>1.010578590853153</v>
       </c>
       <c r="F14">
-        <v>1.027925558695173</v>
+        <v>1.026382998712789</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052635130877071</v>
+        <v>1.050690125366015</v>
       </c>
       <c r="J14">
-        <v>1.03584114611581</v>
+        <v>1.032606456372025</v>
       </c>
       <c r="K14">
-        <v>1.041227613525043</v>
+        <v>1.03828751579098</v>
       </c>
       <c r="L14">
-        <v>1.027864927168552</v>
+        <v>1.0253204412401</v>
       </c>
       <c r="M14">
-        <v>1.042355684102358</v>
+        <v>1.04084029046417</v>
       </c>
       <c r="N14">
-        <v>1.037312159355935</v>
+        <v>1.028742476545778</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04335294585361</v>
+        <v>1.042155152282397</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040289790275524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038226510725213</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022484314206333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00734093484188</v>
+        <v>1.003797661426534</v>
       </c>
       <c r="D15">
-        <v>1.027222277416738</v>
+        <v>1.024084499902968</v>
       </c>
       <c r="E15">
-        <v>1.013706784994454</v>
+        <v>1.010943550179108</v>
       </c>
       <c r="F15">
-        <v>1.028407275227823</v>
+        <v>1.026787598117239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052880365816183</v>
+        <v>1.050839040594789</v>
       </c>
       <c r="J15">
-        <v>1.036262218053422</v>
+        <v>1.032863164014171</v>
       </c>
       <c r="K15">
-        <v>1.041579273185835</v>
+        <v>1.038496587883397</v>
       </c>
       <c r="L15">
-        <v>1.028304241207719</v>
+        <v>1.025591198716874</v>
       </c>
       <c r="M15">
-        <v>1.042743578383784</v>
+        <v>1.041152199834045</v>
       </c>
       <c r="N15">
-        <v>1.037733829263995</v>
+        <v>1.028806788158965</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043696977985531</v>
+        <v>1.042439157502355</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040544252598384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038380742015709</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022535791536354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010453047204803</v>
+        <v>1.006195830859357</v>
       </c>
       <c r="D16">
-        <v>1.029336246446016</v>
+        <v>1.025590351609786</v>
       </c>
       <c r="E16">
-        <v>1.016194374324429</v>
+        <v>1.012757398499806</v>
       </c>
       <c r="F16">
-        <v>1.030331228973628</v>
+        <v>1.028384637931715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053959004024923</v>
+        <v>1.051510976685351</v>
       </c>
       <c r="J16">
-        <v>1.038182507792783</v>
+        <v>1.034089758592316</v>
       </c>
       <c r="K16">
-        <v>1.043160101259418</v>
+        <v>1.03947707347142</v>
       </c>
       <c r="L16">
-        <v>1.030241425772245</v>
+        <v>1.026864059422333</v>
       </c>
       <c r="M16">
-        <v>1.0441384840538</v>
+        <v>1.042224407582445</v>
       </c>
       <c r="N16">
-        <v>1.039656846035047</v>
+        <v>1.029092977001753</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044760905613842</v>
+        <v>1.043247982486472</v>
       </c>
       <c r="Q16">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041665077219133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039077420946063</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022707279183281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012186508123517</v>
+        <v>1.007600622190858</v>
       </c>
       <c r="D17">
-        <v>1.030483670061053</v>
+        <v>1.026454816527788</v>
       </c>
       <c r="E17">
-        <v>1.017516034690955</v>
+        <v>1.013789563817466</v>
       </c>
       <c r="F17">
-        <v>1.031179544234834</v>
+        <v>1.029080367540107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054501366081406</v>
+        <v>1.051863713314015</v>
       </c>
       <c r="J17">
-        <v>1.039184299783322</v>
+        <v>1.034769820818462</v>
       </c>
       <c r="K17">
-        <v>1.043977518387521</v>
+        <v>1.040014369240064</v>
       </c>
       <c r="L17">
-        <v>1.03122375985638</v>
+        <v>1.027560056112174</v>
       </c>
       <c r="M17">
-        <v>1.044662110692216</v>
+        <v>1.042597026549804</v>
       </c>
       <c r="N17">
-        <v>1.040660060685119</v>
+        <v>1.029287858458946</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045046160749088</v>
+        <v>1.043413716394917</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042245577171482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039460125738977</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022770817710237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012833969633969</v>
+        <v>1.008197720645285</v>
       </c>
       <c r="D18">
-        <v>1.030846029478497</v>
+        <v>1.026770757260465</v>
       </c>
       <c r="E18">
-        <v>1.017887790218623</v>
+        <v>1.014152415679262</v>
       </c>
       <c r="F18">
-        <v>1.031054574616273</v>
+        <v>1.028927400634538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054587124304858</v>
+        <v>1.051917235634269</v>
       </c>
       <c r="J18">
-        <v>1.039420741718753</v>
+        <v>1.03495456564781</v>
       </c>
       <c r="K18">
-        <v>1.044152746299829</v>
+        <v>1.040142856421689</v>
       </c>
       <c r="L18">
-        <v>1.031404738914568</v>
+        <v>1.027731251107783</v>
       </c>
       <c r="M18">
-        <v>1.044357963425309</v>
+        <v>1.042264816565468</v>
       </c>
       <c r="N18">
-        <v>1.040896838395218</v>
+        <v>1.029309799879265</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04456883139936</v>
+        <v>1.042913860766831</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042357923788363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039538258495724</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022710806879682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012487996298101</v>
+        <v>1.008030227656333</v>
       </c>
       <c r="D19">
-        <v>1.030498496978286</v>
+        <v>1.026573629403489</v>
       </c>
       <c r="E19">
-        <v>1.017399130585963</v>
+        <v>1.013882311934011</v>
       </c>
       <c r="F19">
-        <v>1.029993213367622</v>
+        <v>1.02794055375744</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054253868880013</v>
+        <v>1.051682180582513</v>
       </c>
       <c r="J19">
-        <v>1.038955463744377</v>
+        <v>1.03466038316468</v>
       </c>
       <c r="K19">
-        <v>1.043748927694287</v>
+        <v>1.039886736625557</v>
       </c>
       <c r="L19">
-        <v>1.030861171706951</v>
+        <v>1.027402363107597</v>
       </c>
       <c r="M19">
-        <v>1.043251678669818</v>
+        <v>1.041231762820901</v>
       </c>
       <c r="N19">
-        <v>1.040430899672751</v>
+        <v>1.029121886098979</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043369650585562</v>
+        <v>1.041772062028926</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042078761265662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039364165223695</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022538667545259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.009315052946585</v>
+        <v>1.005702547637872</v>
       </c>
       <c r="D20">
-        <v>1.028113974873601</v>
+        <v>1.024914076503258</v>
       </c>
       <c r="E20">
-        <v>1.014452646705889</v>
+        <v>1.011825470589949</v>
       </c>
       <c r="F20">
-        <v>1.026389117360089</v>
+        <v>1.02471310722298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052728288391674</v>
+        <v>1.050635263463628</v>
       </c>
       <c r="J20">
-        <v>1.036491557956991</v>
+        <v>1.033015401786636</v>
       </c>
       <c r="K20">
-        <v>1.041679853904707</v>
+        <v>1.03853254561841</v>
       </c>
       <c r="L20">
-        <v>1.028246036705112</v>
+        <v>1.025663522341151</v>
       </c>
       <c r="M20">
-        <v>1.039983291894945</v>
+        <v>1.038334893358188</v>
       </c>
       <c r="N20">
-        <v>1.037963494856534</v>
+        <v>1.028321816947223</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040257283842295</v>
+        <v>1.038952749831981</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04061977436795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038411015231517</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022048652842225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003194033957034</v>
+        <v>1.001256296255832</v>
       </c>
       <c r="D21">
-        <v>1.023885629410988</v>
+        <v>1.02211985585602</v>
       </c>
       <c r="E21">
-        <v>1.009414629970197</v>
+        <v>1.008457680225869</v>
       </c>
       <c r="F21">
-        <v>1.022215132505481</v>
+        <v>1.021311818972155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050478665520997</v>
+        <v>1.049340444759628</v>
       </c>
       <c r="J21">
-        <v>1.032558818266402</v>
+        <v>1.030701585983046</v>
       </c>
       <c r="K21">
-        <v>1.038428183863486</v>
+        <v>1.036693938685227</v>
       </c>
       <c r="L21">
-        <v>1.024219807844723</v>
+        <v>1.023280571530323</v>
       </c>
       <c r="M21">
-        <v>1.036787510533159</v>
+        <v>1.035900376756928</v>
       </c>
       <c r="N21">
-        <v>1.034025170224492</v>
+        <v>1.027830115642547</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037687231871188</v>
+        <v>1.036985121868181</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0383239760917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037114611558063</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021730713430283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9992943988175258</v>
+        <v>0.9984097679795292</v>
       </c>
       <c r="D22">
-        <v>1.021198990389526</v>
+        <v>1.020337696187889</v>
       </c>
       <c r="E22">
-        <v>1.006221119297735</v>
+        <v>1.006318778721335</v>
       </c>
       <c r="F22">
-        <v>1.019653423071067</v>
+        <v>1.019237624279447</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049049001174065</v>
+        <v>1.048510408716555</v>
       </c>
       <c r="J22">
-        <v>1.0300655925672</v>
+        <v>1.029219916830929</v>
       </c>
       <c r="K22">
-        <v>1.036361872673419</v>
+        <v>1.03551674634204</v>
       </c>
       <c r="L22">
-        <v>1.021670333861998</v>
+        <v>1.021766090121742</v>
       </c>
       <c r="M22">
-        <v>1.034845343560473</v>
+        <v>1.034437376460267</v>
       </c>
       <c r="N22">
-        <v>1.03152840385882</v>
+        <v>1.027469848976479</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036150129242785</v>
+        <v>1.035827248598804</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036849580578921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036267536162417</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021532690026158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001344738787664</v>
+        <v>0.9998525080365744</v>
       </c>
       <c r="D23">
-        <v>1.02260212774855</v>
+        <v>1.021219988275308</v>
       </c>
       <c r="E23">
-        <v>1.007891415765668</v>
+        <v>1.007375819745441</v>
       </c>
       <c r="F23">
-        <v>1.021004026203639</v>
+        <v>1.020306490764474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049794816561648</v>
+        <v>1.04891050683295</v>
       </c>
       <c r="J23">
-        <v>1.031368304808328</v>
+        <v>1.029939809915788</v>
       </c>
       <c r="K23">
-        <v>1.037435984717304</v>
+        <v>1.036079118554159</v>
       </c>
       <c r="L23">
-        <v>1.022998918419494</v>
+        <v>1.022493102970041</v>
       </c>
       <c r="M23">
-        <v>1.03586711353772</v>
+        <v>1.035182373888225</v>
       </c>
       <c r="N23">
-        <v>1.032832966100754</v>
+        <v>1.027554655944821</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036958796130725</v>
+        <v>1.036416867722398</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037599419511672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036654607590173</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02160333570193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009258290915483</v>
+        <v>1.005677045089595</v>
       </c>
       <c r="D24">
-        <v>1.028044111391382</v>
+        <v>1.024870085848975</v>
       </c>
       <c r="E24">
-        <v>1.014365540981045</v>
+        <v>1.011776999596873</v>
       </c>
       <c r="F24">
-        <v>1.02623617185653</v>
+        <v>1.024573626176734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052664651988616</v>
+        <v>1.050588694390801</v>
       </c>
       <c r="J24">
-        <v>1.036404550139525</v>
+        <v>1.032958299665461</v>
       </c>
       <c r="K24">
-        <v>1.041596011431444</v>
+        <v>1.038474091437826</v>
       </c>
       <c r="L24">
-        <v>1.028144992307486</v>
+        <v>1.025600406954292</v>
       </c>
       <c r="M24">
-        <v>1.039817700648038</v>
+        <v>1.038182519727113</v>
       </c>
       <c r="N24">
-        <v>1.037876363477986</v>
+        <v>1.028281921208499</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040085429566401</v>
+        <v>1.038791291592953</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040533262774435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038339721407808</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022010810584711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018052918106522</v>
+        <v>1.013007872201994</v>
       </c>
       <c r="D25">
-        <v>1.034112751667195</v>
+        <v>1.029646501629686</v>
       </c>
       <c r="E25">
-        <v>1.021585500257745</v>
+        <v>1.017618271251119</v>
       </c>
       <c r="F25">
-        <v>1.032103664658576</v>
+        <v>1.029768746405752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055811232522393</v>
+        <v>1.05288291270727</v>
       </c>
       <c r="J25">
-        <v>1.041987637896035</v>
+        <v>1.037105261849602</v>
       </c>
       <c r="K25">
-        <v>1.046203624142015</v>
+        <v>1.041801387869815</v>
       </c>
       <c r="L25">
-        <v>1.033857721711323</v>
+        <v>1.029949106908797</v>
       </c>
       <c r="M25">
-        <v>1.044223246139823</v>
+        <v>1.041921871175927</v>
       </c>
       <c r="N25">
-        <v>1.043467379859499</v>
+        <v>1.030511947628444</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043572117036682</v>
+        <v>1.041750738494462</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043788188195419</v>
+        <v>1.040689100701591</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022804285078633</v>
       </c>
     </row>
   </sheetData>
